--- a/hmm/backups/lookups.xlsx
+++ b/hmm/backups/lookups.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="2460" windowWidth="24900" windowHeight="17240"/>
+    <workbookView xWindow="1440" yWindow="460" windowWidth="24900" windowHeight="17240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2903,7 +2903,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2922,6 +2922,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2935,7 +2941,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2957,6 +2963,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3260,8 +3267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M12961"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="D156" sqref="D156"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G158" sqref="G158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6991,23 +6998,23 @@
         <v>-94.388879000000003</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" s="4" t="s">
+    <row r="125" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B125" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="C125" s="4" t="s">
+      <c r="C125" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F125" s="4" t="s">
+      <c r="F125" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G125">
+      <c r="G125" s="19">
         <v>18.125800000000002</v>
       </c>
-      <c r="H125">
+      <c r="H125" s="19">
         <v>-94.434529999999995</v>
       </c>
     </row>
@@ -19972,7 +19979,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
